--- a/metadata/plate_metadata/20250515_part2_well_metadata.xlsx
+++ b/metadata/plate_metadata/20250515_part2_well_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marazzanocolon/Documents/PhD Folder/morphSeq/YX1_imaging_plates/yes-genotyped/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B01A8A-CAC0-6448-A19A-5ECA3EEC517B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BB9A96-4034-7641-BB96-1D45F654C622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="760" windowWidth="30240" windowHeight="17140" activeTab="4" xr2:uid="{1D111BDF-EAD8-A94F-AA28-88CC9649B22F}"/>
+    <workbookView xWindow="4320" yWindow="760" windowWidth="30240" windowHeight="17140" activeTab="2" xr2:uid="{1D111BDF-EAD8-A94F-AA28-88CC9649B22F}"/>
   </bookViews>
   <sheets>
     <sheet name="medium" sheetId="1" r:id="rId1"/>
@@ -85,10 +85,10 @@
     <t>cep290_wildtype</t>
   </si>
   <si>
-    <t>cep290_unkown</t>
+    <t>need to fill in later</t>
   </si>
   <si>
-    <t>need to fill in later</t>
+    <t>cep290_unknown</t>
   </si>
 </sst>
 </file>
@@ -1226,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77E54D0-3682-084C-87D6-317C30F3BB42}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1378,7 +1378,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>11</v>
@@ -1422,10 +1422,10 @@
         <v>12</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>11</v>
@@ -1451,7 +1451,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
@@ -1463,16 +1463,16 @@
         <v>11</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1568,10 +1568,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
@@ -1583,7 +1583,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>11</v>
@@ -1992,7 +1992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F11C58-0A1C-8F4D-A690-43B3ED108271}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:M9"/>
     </sheetView>
   </sheetViews>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
